--- a/HMS_API文档.xlsx
+++ b/HMS_API文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>六个模块：首页、价格管理、信息设置、入住登记、预定中心、客户管理。</t>
   </si>
@@ -63,6 +63,12 @@
     <t>女性（0）/男性（1）</t>
   </si>
   <si>
+    <t>是否删除（delete）：</t>
+  </si>
+  <si>
+    <t>已删除（0）/未删除（1）</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -76,11 +82,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>首页</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>（获取该年每月的住宿率，注：0-100表示）</t>
@@ -105,11 +118,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>价格管理</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>（获取不同客房的预定价格、预定折扣、计时最低价格）</t>
@@ -123,18 +143,18 @@
   code: 1,
   details:[{
       type: 1, // 标间
-      price: 240, // 240元
-      discount: 0.8, // 八折
+      bPrice: 240, // 240元
+      bDiscount: 0.8, // 八折
       timeLeft: 86400, // 剩余时间(单位：s)
     },{
       type: 2, // 大床房
-      price: 320, // 320元
-      discount: 0.8, // 八折
+      bPrice: 320, // 320元
+      bDiscount: 0.8, // 八折
       timeLeft: 86400, // 剩余时间(单位：s)
     },{
       type: 3, // 总统套房
-      price: 480, // 480元
-      discount: 0.8, // 八折
+      bPrice: 480, // 480元
+      bDiscount: 0.8, // 八折
       timeLeft: 86400, // 剩余时间(单位：s)
     },]
 }</t>
@@ -150,7 +170,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>（设置不同客房的预定价格、预定折扣、计时最低价格）</t>
+      <t>（设置或者修改不同客房的预定价格、预定折扣、计时最低价格）</t>
     </r>
   </si>
   <si>
@@ -159,8 +179,8 @@
   <si>
     <t>{
   type: 1, // 标间
-  price: 240, // 240元
-  discount: 0.8, // 八折
+  bPrice: 240, // 240元
+  bDiscount: 0.8, // 八折
   timeLeft: 86400, // 剩余时间(单位：s)
 }</t>
   </si>
@@ -171,6 +191,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>信息设置</t>
     </r>
     <r>
@@ -192,10 +218,11 @@
   details: [{
     roomNum: 888,
     type: 1,
-    price: 300,
-    discount: 1, // 十折
+    rPrice: 300,
+    rDiscount: 1, // 十折
     status: 1,
-    useful: 1
+    useful: 1,
+    delete: 1
   },...]
 }</t>
   </si>
@@ -210,21 +237,28 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>（设置实际价格、实际折扣、房间状态、是否可用）</t>
+      <t>（设置或者修改实际价格、实际折扣、房间状态、是否可用）</t>
     </r>
   </si>
   <si>
     <t>{
   roomNum: 888,
   type: 1,
-  price: 300,
-  discount: 1, // 十折
+  rPrice: 300,
+  rDiscount: 1, // 十折
   status: 1,
-  useful: 1
+  useful: 1,
+  delete: 1
 }</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>入住登记</t>
     </r>
     <r>
@@ -246,9 +280,11 @@
   details: [{
     startTime: '2018-01-01',
     endTime: '2018-01-03',
+    userId: 123,
     userName: '张三',
     roomNum: 999,
     type: 1,
+    delete: 1
   },...]
 }</t>
   </si>
@@ -263,24 +299,34 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>（设置时间、离店时间、客户资料、入住房间）</t>
+      <t>（设置或者修改时间、离店时间、客户资料、入住房间）</t>
     </r>
   </si>
   <si>
     <t>{
   startTime: '2018-01-01',
   endTime: '2018-01-03',
+  userId: 123,
   userName: '张三',
-  roomNum: 999
+  roomNum: 999,
+  type: 1,
+  delete: 1
 }</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>预定中心</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>（获取预定信息: 预定方式、预定结果、预订人、预定房间类型）</t>
@@ -295,18 +341,27 @@
   details: [{
     method: 3,
     result: 2,
+    userId: 123,
     userName: '张三',
-    type: 2
+    type: 2,
+    delete: 1
   },...]
 }</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>预定中心</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>（设置预定信息: 预定方式、预定结果、预订人、预定房间类型）</t>
@@ -316,12 +371,20 @@
     <t>{
   method: 3,
   result: 2,
+  userId: 123,
   userName: '张三',
-  type: 2
+  type: 2,
+  delete: 1
 }</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>客户管理</t>
     </r>
     <r>
@@ -354,6 +417,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>客户管理</t>
     </r>
     <r>
@@ -380,10 +449,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -402,15 +471,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,137 +539,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -567,6 +634,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -579,43 +748,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,127 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,16 +829,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,11 +867,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,17 +891,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,160 +930,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1372,10 +1436,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1388,285 +1452,275 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="66" customHeight="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="66" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="29" customHeight="1" spans="1:5">
+    </row>
+    <row r="2" ht="29" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="29" customHeight="1" spans="1:5">
+    </row>
+    <row r="3" ht="29" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="29" customHeight="1" spans="1:5">
+    </row>
+    <row r="4" ht="29" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="29" customHeight="1" spans="1:5">
+    </row>
+    <row r="5" ht="29" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="29" customHeight="1" spans="1:5">
+    </row>
+    <row r="6" ht="29" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="1" ht="29" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="1" ht="29" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="24" customHeight="1" spans="2:5">
-      <c r="B9" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="24" customHeight="1" spans="2:5">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="72" customHeight="1" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="72" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="269" customHeight="1" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="12" s="1" customFormat="1" ht="269" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="178" customHeight="1" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="178" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="126" customHeight="1" spans="1:5">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="126" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="165" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="131" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="141" customHeight="1" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="150" customHeight="1" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="126" customHeight="1" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="123" customHeight="1" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="126" customHeight="1" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="140" customHeight="1" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="145" customHeight="1" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="140" customHeight="1" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="145" customHeight="1" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="24" customHeight="1"/>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="22" s="1" customFormat="1" ht="24" customHeight="1"/>
-    <row r="23" ht="24" customHeight="1"/>
+    <row r="23" s="1" customFormat="1" ht="24" customHeight="1"/>
     <row r="24" ht="24" customHeight="1"/>
     <row r="25" ht="24" customHeight="1"/>
     <row r="26" ht="24" customHeight="1"/>
@@ -1677,8 +1731,9 @@
     <row r="31" ht="24" customHeight="1"/>
     <row r="32" ht="24" customHeight="1"/>
     <row r="33" ht="24" customHeight="1"/>
+    <row r="34" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -1687,6 +1742,7 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/HMS_API文档.xlsx
+++ b/HMS_API文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>六个模块：首页、价格管理、信息设置、入住登记、预定中心、客户管理。</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>已删除（0）/未删除（1）</t>
+  </si>
+  <si>
+    <t>是否结账（isPaid）：</t>
+  </si>
+  <si>
+    <t>未结账（0）/已结账（1）</t>
   </si>
   <si>
     <t>url</t>
@@ -161,6 +167,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>价格管理</t>
     </r>
     <r>
@@ -222,12 +234,18 @@
     rDiscount: 1, // 十折
     status: 1,
     useful: 1,
-    delete: 1
+    isDelete: 1
   },...]
 }</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>信息设置</t>
     </r>
     <r>
@@ -248,7 +266,7 @@
   rDiscount: 1, // 十折
   status: 1,
   useful: 1,
-  delete: 1
+  isDelete: 1
 }</t>
   </si>
   <si>
@@ -284,12 +302,19 @@
     userName: '张三',
     roomNum: 999,
     type: 1,
-    delete: 1
+    isDelete: 1，
+    isPaid: 0
   },...]
 }</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>入住登记</t>
     </r>
     <r>
@@ -310,7 +335,8 @@
   userName: '张三',
   roomNum: 999,
   type: 1,
-  delete: 1
+  isDelete: 1,
+  isPaid: 1
 }</t>
   </si>
   <si>
@@ -343,8 +369,9 @@
     result: 2,
     userId: 123,
     userName: '张三',
+    telNum: 12312313123,
     type: 2,
-    delete: 1
+    isDelete: 1
   },...]
 }</t>
   </si>
@@ -373,8 +400,9 @@
   result: 2,
   userId: 123,
   userName: '张三',
+  telNum: 12312312312,
   type: 2,
-  delete: 1
+  isDelete: 1
 }</t>
   </si>
   <si>
@@ -411,7 +439,8 @@
     userName: '张三',
     gender: 1，
     age: 33,
-    telNum: 13012345678
+    telNum: 13012345678,
+    isDelete: 1
   },...]
 }</t>
   </si>
@@ -440,7 +469,8 @@
   userName: '张三',
   gender: 1，
   age: 33,
-  telNum: 13012345678
+  telNum: 13012345678,
+  isDelete: 1
 }</t>
   </si>
 </sst>
@@ -450,11 +480,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,37 +501,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,103 +637,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -634,12 +670,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -652,169 +820,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,16 +864,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -853,21 +889,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -878,6 +899,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,28 +932,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,133 +981,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1436,10 +1472,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1530,198 +1566,208 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="24" customHeight="1" spans="2:5">
-      <c r="B10" s="1" t="s">
+    <row r="10" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="24" customHeight="1" spans="2:5">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" s="1" customFormat="1" ht="72" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="269" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="269" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="108" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="178" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="15" s="1" customFormat="1" ht="178" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="126" customHeight="1" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="165" customHeight="1" spans="1:5">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="126" customHeight="1" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="188" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="131" customHeight="1" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="150" customHeight="1" spans="1:5">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="131" customHeight="1" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="172" customHeight="1" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="126" customHeight="1" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="140" customHeight="1" spans="1:5">
+    </row>
+    <row r="20" s="1" customFormat="1" ht="126" customHeight="1" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="140" customHeight="1" spans="1:5">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="145" customHeight="1" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="22" s="1" customFormat="1" ht="145" customHeight="1" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="24" customHeight="1"/>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="23" s="1" customFormat="1" ht="24" customHeight="1"/>
-    <row r="24" ht="24" customHeight="1"/>
+    <row r="24" s="1" customFormat="1" ht="24" customHeight="1"/>
     <row r="25" ht="24" customHeight="1"/>
     <row r="26" ht="24" customHeight="1"/>
     <row r="27" ht="24" customHeight="1"/>
@@ -1732,8 +1778,9 @@
     <row r="32" ht="24" customHeight="1"/>
     <row r="33" ht="24" customHeight="1"/>
     <row r="34" ht="24" customHeight="1"/>
+    <row r="35" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -1743,6 +1790,7 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/HMS_API文档.xlsx
+++ b/HMS_API文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>六个模块：首页、价格管理、信息设置、入住登记、预定中心、客户管理。</t>
   </si>
@@ -151,17 +151,17 @@
       type: 1, // 标间
       bPrice: 240, // 240元
       bDiscount: 0.8, // 八折
-      timeLeft: 86400, // 剩余时间(单位：s)
+      timeLeft: 200, // 计时最低价格)
     },{
       type: 2, // 大床房
       bPrice: 320, // 320元
       bDiscount: 0.8, // 八折
-      timeLeft: 86400, // 剩余时间(单位：s)
+      timeLeft: 200, // 计时最低价格
     },{
       type: 3, // 总统套房
       bPrice: 480, // 480元
       bDiscount: 0.8, // 八折
-      timeLeft: 86400, // 剩余时间(单位：s)
+      timeLeft: 200, // 计时最低价格
     },]
 }</t>
   </si>
@@ -193,7 +193,7 @@
   type: 1, // 标间
   bPrice: 240, // 240元
   bDiscount: 0.8, // 八折
-  timeLeft: 86400, // 剩余时间(单位：s)
+  timeLeft: 200, // 计时最低价格
 }</t>
   </si>
   <si>
@@ -429,7 +429,7 @@
     <t>/customer/details</t>
   </si>
   <si>
-    <t>userName='张三'</t>
+    <t>userId=1</t>
   </si>
   <si>
     <t>{
@@ -470,7 +470,55 @@
   gender: 1，
   age: 33,
   telNum: 13012345678,
+  isDelete: 1,
+  userPwd: 123456
+}</t>
+  </si>
+  <si>
+    <t>客户登录</t>
+  </si>
+  <si>
+    <t>/customer/login</t>
+  </si>
+  <si>
+    <t>{
+  nickname: 'zhangsan',
+  userPwd: '123456'
+}</t>
+  </si>
+  <si>
+    <t>客户注册</t>
+  </si>
+  <si>
+    <t>/customer/register</t>
+  </si>
+  <si>
+    <t>{
+  nickname: 'zhangsan',
+  userPwd: '123456',
+  userName: '张三',
+  gender: 1,
+  age: 33,
+  telNum:12312312312,
   isDelete: 1
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>客户预定中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（获取预定信息: 预定方式、预定结果、预订人、预定房间类型）</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  userId: 123
 }</t>
   </si>
 </sst>
@@ -480,9 +528,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -501,12 +549,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -515,6 +592,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -525,6 +630,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -532,15 +645,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,100 +682,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -670,187 +718,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,6 +909,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -879,15 +942,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -899,17 +953,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,6 +975,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -946,21 +1009,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -969,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,137 +1029,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1170,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1474,8 +1525,8 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1742,7 +1793,7 @@
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1750,7 +1801,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="145" customHeight="1" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1759,7 +1810,7 @@
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1767,9 +1818,57 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="24" customHeight="1"/>
-    <row r="24" s="1" customFormat="1" ht="24" customHeight="1"/>
-    <row r="25" ht="24" customHeight="1"/>
-    <row r="26" ht="24" customHeight="1"/>
+    <row r="24" s="1" customFormat="1" ht="145" customHeight="1" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="145" customHeight="1" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="172" customHeight="1" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="27" ht="24" customHeight="1"/>
     <row r="28" ht="24" customHeight="1"/>
     <row r="29" ht="24" customHeight="1"/>

--- a/HMS_API文档.xlsx
+++ b/HMS_API文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9540"/>
+    <workbookView windowWidth="19770" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>六个模块：首页、价格管理、信息设置、入住登记、预定中心、客户管理。</t>
   </si>
@@ -296,6 +296,7 @@
     <t>{
   code: 1,
   details: [{
+    checkId:1,
     startTime: '2018-01-01',
     endTime: '2018-01-03',
     userId: 123,
@@ -329,6 +330,7 @@
   </si>
   <si>
     <t>{
+  checkId: 1,
   startTime: '2018-01-01',
   endTime: '2018-01-03',
   userId: 123,
@@ -360,6 +362,174 @@
   </si>
   <si>
     <t>/booking/details</t>
+  </si>
+  <si>
+    <t>{
+  code: 1,
+  details: [{
+    bookingId: 1,
+    method: 3,
+    result: 2,
+    userId: 123,
+    userName: '张三',
+    telNum: 12312313123,
+    type: 2,
+    isDelete: 1
+  },...]
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预定中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（设置预定信息: 预定方式、预定结果、预订人、预定房间类型）</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  bookingId: 1,
+  method: 3,
+  result: 2,
+  userId: 123,
+  userName: '张三',
+  telNum: 12312312312,
+  type: 2,
+  isDelete: 1
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（获取名字、性别、年龄、电话）</t>
+    </r>
+  </si>
+  <si>
+    <t>/customer/details</t>
+  </si>
+  <si>
+    <t>userId=1</t>
+  </si>
+  <si>
+    <t>{
+  code: 1,
+  details: [{
+    userId: 1,
+    userName: '张三',
+    gender: 1，
+    age: 33,
+    telNum: 13012345678,
+    isDelete: 1
+  },...]
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（新增名字、性别、年龄、电话）</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  userName: '张三',
+  gender: 1，
+  age: 33,
+  telNum: 13012345678,
+  isDelete: 1,
+  userPwd: 123456
+}</t>
+  </si>
+  <si>
+    <t>客户登录</t>
+  </si>
+  <si>
+    <t>/customer/login</t>
+  </si>
+  <si>
+    <t>{
+  nickname: 'zhangsan',
+  userPwd: '123456'
+}</t>
+  </si>
+  <si>
+    <t>客户注册</t>
+  </si>
+  <si>
+    <t>/customer/register</t>
+  </si>
+  <si>
+    <t>{
+  nickname: 'zhangsan',
+  userPwd: '123456',
+  userName: '张三',
+  gender: 1,
+  age: 33,
+  telNum:12312312312,
+  isDelete: 1
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户预定中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（获取预定信息: 预定方式、预定结果、预订人、预定房间类型）</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  userId: 123
+}</t>
   </si>
   <si>
     <t>{
@@ -375,162 +545,16 @@
   },...]
 }</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预定中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（设置预定信息: 预定方式、预定结果、预订人、预定房间类型）</t>
-    </r>
-  </si>
-  <si>
-    <t>{
-  method: 3,
-  result: 2,
-  userId: 123,
-  userName: '张三',
-  telNum: 12312312312,
-  type: 2,
-  isDelete: 1
-}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客户管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（获取名字、性别、年龄、电话）</t>
-    </r>
-  </si>
-  <si>
-    <t>/customer/details</t>
-  </si>
-  <si>
-    <t>userId=1</t>
-  </si>
-  <si>
-    <t>{
-  code: 1,
-  details: [{
-    userId: 1,
-    userName: '张三',
-    gender: 1，
-    age: 33,
-    telNum: 13012345678,
-    isDelete: 1
-  },...]
-}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客户管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（新增名字、性别、年龄、电话）</t>
-    </r>
-  </si>
-  <si>
-    <t>{
-  userName: '张三',
-  gender: 1，
-  age: 33,
-  telNum: 13012345678,
-  isDelete: 1,
-  userPwd: 123456
-}</t>
-  </si>
-  <si>
-    <t>客户登录</t>
-  </si>
-  <si>
-    <t>/customer/login</t>
-  </si>
-  <si>
-    <t>{
-  nickname: 'zhangsan',
-  userPwd: '123456'
-}</t>
-  </si>
-  <si>
-    <t>客户注册</t>
-  </si>
-  <si>
-    <t>/customer/register</t>
-  </si>
-  <si>
-    <t>{
-  nickname: 'zhangsan',
-  userPwd: '123456',
-  userName: '张三',
-  gender: 1,
-  age: 33,
-  telNum:12312312312,
-  isDelete: 1
-}</t>
-  </si>
-  <si>
-    <r>
-      <t>客户预定中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（获取预定信息: 预定方式、预定结果、预订人、预定房间类型）</t>
-    </r>
-  </si>
-  <si>
-    <t>{
-  userId: 123
-}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -554,10 +578,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,130 +659,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,181 +748,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,6 +933,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -923,21 +956,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,11 +993,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,21 +1033,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1017,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,133 +1053,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1525,8 +1549,8 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1735,7 +1759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="131" customHeight="1" spans="1:5">
+    <row r="18" s="1" customFormat="1" ht="144" customHeight="1" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -1866,7 +1890,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1"/>
